--- a/prototype_data.xlsx
+++ b/prototype_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Study\Универ 2024\DT\project-folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9C396F-F15E-48DD-A76E-CB72951ED5B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E97406-80D6-4A3D-B43F-32B34AFD096A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8304" yWindow="2484" windowWidth="13656" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fridge" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Product</t>
   </si>
@@ -51,39 +51,12 @@
     <t>Chicken</t>
   </si>
   <si>
-    <t>01.01.2025</t>
-  </si>
-  <si>
-    <t>07.01.2025</t>
-  </si>
-  <si>
-    <t>15.01.2025</t>
-  </si>
-  <si>
-    <t>11.01.2025</t>
-  </si>
-  <si>
-    <t>10.01.2025</t>
-  </si>
-  <si>
-    <t>10.02.2025</t>
-  </si>
-  <si>
-    <t>20.02.2025</t>
-  </si>
-  <si>
-    <t>27.01.2025</t>
-  </si>
-  <si>
     <t>Expired</t>
   </si>
   <si>
     <t>Fresh</t>
   </si>
   <si>
-    <t>Expired Soon</t>
-  </si>
-  <si>
     <t>Recipe</t>
   </si>
   <si>
@@ -235,12 +208,18 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Expires Soon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,11 +272,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,9 +618,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -660,60 +645,61 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45667</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45699</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="B4" s="2">
+        <v>45672</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45700</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="B5" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45686</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -727,57 +713,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -795,72 +781,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -878,27 +864,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -916,42 +902,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -980,46 +966,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
